--- a/image/measure.xlsx
+++ b/image/measure.xlsx
@@ -1431,45 +1431,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.93359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="178.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="178.828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="133.8359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.48046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="134.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.81640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="86.953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/measure.xlsx
+++ b/image/measure.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="413">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -384,10 +384,6 @@
   </si>
   <si>
     <t>Measure.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the measure</t>
@@ -1431,45 +1427,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="178.828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="178.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="134.45703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.46875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="133.8359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.48046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.70703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="86.953125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.81640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2839,16 +2835,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2913,10 +2909,10 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2927,7 +2923,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2950,19 +2946,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -3011,7 +3007,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3020,7 +3016,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -3040,7 +3036,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3063,16 +3059,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3122,7 +3118,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3137,7 +3133,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -3151,7 +3147,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3174,13 +3170,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3231,7 +3227,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3260,7 +3256,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3286,13 +3282,13 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3318,14 +3314,14 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3342,7 +3338,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>48</v>
@@ -3357,10 +3353,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3371,7 +3367,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3394,19 +3390,19 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3455,7 +3451,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3470,10 +3466,10 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3484,7 +3480,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3507,51 +3503,51 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Q19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W19" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Q19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W19" t="s" s="2">
+      <c r="X19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3568,7 +3564,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3597,11 +3593,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3620,16 +3616,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3679,7 +3675,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3694,10 +3690,10 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3708,7 +3704,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3731,19 +3727,19 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3792,7 +3788,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3807,10 +3803,10 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3821,7 +3817,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3844,16 +3840,16 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3903,7 +3899,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3918,7 +3914,7 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -3932,7 +3928,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3955,16 +3951,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4014,7 +4010,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4029,7 +4025,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -4043,7 +4039,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4066,19 +4062,19 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4127,7 +4123,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4142,7 +4138,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -4156,7 +4152,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4179,16 +4175,16 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4214,14 +4210,14 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4238,7 +4234,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4253,7 +4249,7 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
@@ -4267,7 +4263,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4290,16 +4286,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4349,7 +4345,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4364,10 +4360,10 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>117</v>
@@ -4378,7 +4374,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4401,13 +4397,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4458,7 +4454,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4487,11 +4483,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4510,17 +4506,17 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4569,7 +4565,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4584,7 +4580,7 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
@@ -4598,7 +4594,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4621,16 +4617,16 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4680,7 +4676,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4695,7 +4691,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -4709,7 +4705,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4732,19 +4728,19 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4793,7 +4789,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4808,7 +4804,7 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -4822,7 +4818,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4845,19 +4841,19 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4906,7 +4902,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4921,7 +4917,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
@@ -4935,7 +4931,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4958,17 +4954,17 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4993,14 +4989,14 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
@@ -5017,7 +5013,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5046,7 +5042,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5069,13 +5065,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5126,7 +5122,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5150,12 +5146,12 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5178,13 +5174,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5235,7 +5231,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5264,7 +5260,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5287,13 +5283,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5344,7 +5340,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5368,12 +5364,12 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5396,13 +5392,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5453,7 +5449,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5477,12 +5473,12 @@
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5505,19 +5501,19 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5566,7 +5562,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5595,7 +5591,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5618,13 +5614,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5675,7 +5671,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5704,7 +5700,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5727,17 +5723,17 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5786,7 +5782,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5815,7 +5811,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5838,13 +5834,13 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5871,14 +5867,14 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5895,7 +5891,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5924,7 +5920,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5947,13 +5943,13 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5980,14 +5976,14 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6004,7 +6000,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6033,7 +6029,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6056,13 +6052,13 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6089,14 +6085,14 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6113,7 +6109,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6142,7 +6138,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6165,16 +6161,16 @@
         <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6224,7 +6220,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6253,7 +6249,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6276,16 +6272,16 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6335,7 +6331,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6364,7 +6360,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6387,17 +6383,17 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6446,7 +6442,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6475,7 +6471,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6498,13 +6494,13 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6555,7 +6551,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6584,7 +6580,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6607,17 +6603,17 @@
         <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6642,14 +6638,14 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6666,7 +6662,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6695,7 +6691,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6718,17 +6714,17 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6777,7 +6773,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6806,7 +6802,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6829,17 +6825,17 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6888,7 +6884,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6917,7 +6913,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6940,13 +6936,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6997,7 +6993,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7009,7 +7005,7 @@
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
@@ -7026,7 +7022,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7049,13 +7045,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7106,7 +7102,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7130,12 +7126,12 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7164,7 +7160,7 @@
         <v>94</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>96</v>
@@ -7217,7 +7213,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7241,16 +7237,16 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7272,10 +7268,10 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>96</v>
@@ -7330,7 +7326,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7359,7 +7355,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7382,13 +7378,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7439,7 +7435,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7468,7 +7464,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7491,13 +7487,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7548,7 +7544,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7577,7 +7573,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7600,13 +7596,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7657,7 +7653,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7669,7 +7665,7 @@
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
@@ -7686,7 +7682,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7709,13 +7705,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7766,7 +7762,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7790,12 +7786,12 @@
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7824,7 +7820,7 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>96</v>
@@ -7877,7 +7873,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7901,16 +7897,16 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7932,10 +7928,10 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>96</v>
@@ -7990,7 +7986,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8019,7 +8015,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8042,13 +8038,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8075,14 +8071,14 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8099,7 +8095,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8128,7 +8124,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8151,13 +8147,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8208,7 +8204,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8237,7 +8233,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8260,16 +8256,16 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8319,7 +8315,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>48</v>
@@ -8348,7 +8344,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8371,13 +8367,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8428,7 +8424,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8440,7 +8436,7 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
@@ -8457,7 +8453,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8480,13 +8476,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8537,7 +8533,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8561,12 +8557,12 @@
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8595,7 +8591,7 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>96</v>
@@ -8648,7 +8644,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8672,16 +8668,16 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8703,10 +8699,10 @@
         <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>96</v>
@@ -8761,7 +8757,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8790,7 +8786,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8813,13 +8809,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8870,7 +8866,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8899,7 +8895,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8922,13 +8918,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8979,7 +8975,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9008,7 +9004,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9031,13 +9027,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9088,7 +9084,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9117,7 +9113,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9140,16 +9136,16 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9199,7 +9195,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9211,7 +9207,7 @@
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>40</v>
@@ -9228,7 +9224,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9251,13 +9247,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9308,7 +9304,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9332,12 +9328,12 @@
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9366,7 +9362,7 @@
         <v>94</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>96</v>
@@ -9419,7 +9415,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9443,16 +9439,16 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9474,10 +9470,10 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>96</v>
@@ -9532,7 +9528,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9561,7 +9557,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9584,13 +9580,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9641,7 +9637,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9670,7 +9666,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9693,13 +9689,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9750,7 +9746,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9779,7 +9775,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9802,13 +9798,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9859,7 +9855,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>48</v>
@@ -9888,7 +9884,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9911,16 +9907,16 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9970,7 +9966,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9982,7 +9978,7 @@
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>40</v>
@@ -9999,7 +9995,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10022,13 +10018,13 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10079,7 +10075,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10103,12 +10099,12 @@
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10137,7 +10133,7 @@
         <v>94</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>96</v>
@@ -10190,7 +10186,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10214,16 +10210,16 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10245,10 +10241,10 @@
         <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>96</v>
@@ -10303,7 +10299,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10332,7 +10328,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10355,13 +10351,13 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10412,7 +10408,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10441,7 +10437,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10464,13 +10460,13 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10497,14 +10493,14 @@
         <v>40</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10521,7 +10517,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10550,7 +10546,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10573,13 +10569,13 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10630,7 +10626,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10659,7 +10655,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10682,13 +10678,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10739,7 +10735,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>48</v>
